--- a/WLStatistics.xlsx
+++ b/WLStatistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Documents\school\IntroCSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceharvey\Documents\Personal\School\CSS\waitinglist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Transplant Rates - 2014 - Kidne" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="104">
   <si>
     <t>All Donor Types</t>
   </si>
@@ -297,16 +298,72 @@
   </si>
   <si>
     <t>WL</t>
+  </si>
+  <si>
+    <t>All Time</t>
+  </si>
+  <si>
+    <t> Candidates</t>
+  </si>
+  <si>
+    <t>% Candidates</t>
+  </si>
+  <si>
+    <t>Time (Months)</t>
+  </si>
+  <si>
+    <t>[0,1)</t>
+  </si>
+  <si>
+    <t>[1,3)</t>
+  </si>
+  <si>
+    <t>[3,6)</t>
+  </si>
+  <si>
+    <t>[6,12)</t>
+  </si>
+  <si>
+    <t>[12,24]</t>
+  </si>
+  <si>
+    <t>[24, 36)</t>
+  </si>
+  <si>
+    <t>[36, 60)</t>
+  </si>
+  <si>
+    <t>[60, Inf)</t>
+  </si>
+  <si>
+    <t>Calculation for Transplant Eligible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,17 +392,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,15 +686,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI66"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="9.140625" style="5"/>
+    <col min="19" max="24" width="9.140625" style="5"/>
+    <col min="27" max="30" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -662,7 +730,7 @@
       <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Q1" t="s">
@@ -671,22 +739,22 @@
       <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="5" t="s">
         <v>82</v>
       </c>
       <c r="Y1" t="s">
@@ -695,29 +763,32 @@
       <c r="Z1" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -748,7 +819,7 @@
       <c r="O2" s="1">
         <v>11568</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <v>5283</v>
       </c>
       <c r="Q2">
@@ -757,22 +828,22 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="5">
         <v>56</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="5">
         <v>641</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>23</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>318</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>1</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="5">
         <v>500</v>
       </c>
       <c r="Y2" s="1">
@@ -781,29 +852,33 @@
       <c r="Z2" s="1">
         <v>4745</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="6">
         <v>3278</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="5">
         <v>201</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="6">
         <v>3668</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="6">
         <v>2377</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" s="1">
+        <f>J2-P2-S2-T2-V2-U2-W2-X2-AA2-AB2-AD2-AC2</f>
+        <v>19810</v>
+      </c>
+      <c r="AG2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>108965</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>101035</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -834,7 +909,7 @@
       <c r="O3">
         <v>139</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="5">
         <v>87</v>
       </c>
       <c r="Q3">
@@ -843,22 +918,22 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="5">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
         <v>7</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
         <v>0</v>
       </c>
       <c r="Y3">
@@ -867,29 +942,33 @@
       <c r="Z3">
         <v>204</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="5">
         <v>28</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="5">
         <v>1</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="5">
         <v>28</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="5">
         <v>110</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3:AE60" si="0">J3-P3-S3-T3-V3-U3-W3-X3-AA3-AB3-AD3-AC3</f>
+        <v>307</v>
+      </c>
+      <c r="AG3" t="s">
         <v>4</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>3245</v>
       </c>
       <c r="AI3" s="1">
         <v>3245</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="1">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -920,7 +999,7 @@
       <c r="O4">
         <v>57</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>10</v>
       </c>
       <c r="Q4">
@@ -929,22 +1008,22 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
         <v>1</v>
       </c>
       <c r="Y4">
@@ -953,29 +1032,33 @@
       <c r="Z4">
         <v>10</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="5">
         <v>14</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
         <v>9</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="5">
         <v>7</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s">
         <v>5</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>258</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1089,7 @@
       <c r="O5">
         <v>302</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>126</v>
       </c>
       <c r="Q5">
@@ -1015,22 +1098,22 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>8</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
         <v>3</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
         <v>10</v>
       </c>
       <c r="Y5">
@@ -1039,29 +1122,33 @@
       <c r="Z5">
         <v>97</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="5">
         <v>61</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="5">
         <v>5</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="5">
         <v>79</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="5">
         <v>29</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
+      <c r="AG5" t="s">
         <v>6</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>1972</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>1965</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1179,7 @@
       <c r="O6">
         <v>440</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <v>204</v>
       </c>
       <c r="Q6">
@@ -1101,22 +1188,22 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="5">
         <v>32</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
         <v>30</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
         <v>71</v>
       </c>
       <c r="Y6">
@@ -1125,29 +1212,33 @@
       <c r="Z6">
         <v>420</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="5">
         <v>112</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="5">
         <v>7</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="5">
         <v>307</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="5">
         <v>160</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="AG6" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>8930</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>8827</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1269,7 @@
       <c r="O7">
         <v>257</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>44</v>
       </c>
       <c r="Q7">
@@ -1187,22 +1278,22 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="5">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="5">
         <v>3</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>4</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
         <v>15</v>
       </c>
       <c r="Y7">
@@ -1211,29 +1302,33 @@
       <c r="Z7">
         <v>41</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="5">
         <v>29</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="5">
         <v>4</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="5">
         <v>30</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="5">
         <v>25</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="AG7" t="s">
         <v>8</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>1251</v>
       </c>
       <c r="AI7" s="1">
         <v>1251</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1359,7 @@
       <c r="O8" s="2">
         <v>610</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <v>259</v>
       </c>
       <c r="Q8" s="2">
@@ -1273,22 +1368,22 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="7">
         <v>10</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="7">
         <v>26</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
         <v>2</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
         <v>22</v>
       </c>
       <c r="Y8" s="2">
@@ -1297,29 +1392,33 @@
       <c r="Z8" s="2">
         <v>244</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="7">
         <v>205</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="7">
         <v>10</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="7">
         <v>150</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="7">
         <v>84</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>1396</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>7462</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>7420</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1449,7 @@
       <c r="O9">
         <v>137</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="5">
         <v>80</v>
       </c>
       <c r="Q9">
@@ -1359,22 +1458,22 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="5">
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="5">
         <v>3</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
         <v>4</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
         <v>3</v>
       </c>
       <c r="Y9">
@@ -1383,29 +1482,33 @@
       <c r="Z9">
         <v>49</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="5">
         <v>35</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="5">
         <v>2</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="5">
         <v>37</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="5">
         <v>37</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="AG9" t="s">
         <v>10</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>1944</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>1939</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1539,7 @@
       <c r="O10">
         <v>138</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>105</v>
       </c>
       <c r="Q10">
@@ -1445,22 +1548,22 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
         <v>13</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
         <v>9</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
         <v>10</v>
       </c>
       <c r="Y10">
@@ -1469,29 +1572,33 @@
       <c r="Z10">
         <v>99</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="5">
         <v>29</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="5">
         <v>2</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="5">
         <v>37</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="5">
         <v>17</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" s="1">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="AG10" t="s">
         <v>11</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AI10" s="1">
         <v>1954</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AJ10" s="1">
         <v>1948</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1629,7 @@
       <c r="O11">
         <v>49</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <v>31</v>
       </c>
       <c r="Q11">
@@ -1531,22 +1638,22 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>1</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
         <v>2</v>
       </c>
       <c r="Y11">
@@ -1555,29 +1662,33 @@
       <c r="Z11">
         <v>34</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="5">
         <v>18</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
         <v>13</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="5">
         <v>4</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AG11" t="s">
         <v>12</v>
-      </c>
-      <c r="AH11">
-        <v>494</v>
       </c>
       <c r="AI11">
         <v>494</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1719,7 @@
       <c r="O12">
         <v>176</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>114</v>
       </c>
       <c r="Q12">
@@ -1617,22 +1728,22 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="5">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="5">
         <v>12</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
         <v>13</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
         <v>4</v>
       </c>
       <c r="Y12">
@@ -1641,29 +1752,33 @@
       <c r="Z12">
         <v>80</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="5">
         <v>40</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="5">
         <v>4</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="5">
         <v>44</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="5">
         <v>85</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="AG12" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>1827</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1">
         <v>1809</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1809,7 @@
       <c r="O13">
         <v>113</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="5">
         <v>25</v>
       </c>
       <c r="Q13">
@@ -1703,22 +1818,22 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
         <v>3</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
         <v>1</v>
       </c>
       <c r="Y13">
@@ -1727,29 +1842,33 @@
       <c r="Z13">
         <v>26</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="5">
         <v>26</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
         <v>15</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="5">
         <v>15</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AE13" s="1">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="AG13" t="s">
         <v>14</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>577</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1899,7 @@
       <c r="O14">
         <v>260</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="5">
         <v>104</v>
       </c>
       <c r="Q14">
@@ -1789,22 +1908,22 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="5">
         <v>2</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="5">
         <v>8</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
         <v>1</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="5">
         <v>12</v>
       </c>
       <c r="Y14">
@@ -1813,29 +1932,33 @@
       <c r="Z14">
         <v>72</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="5">
         <v>30</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="5">
         <v>3</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="5">
         <v>33</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="5">
         <v>27</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AE14" s="1">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="AG14" t="s">
         <v>15</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>2013</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>1978</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1989,7 @@
       <c r="O15">
         <v>173</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="5">
         <v>48</v>
       </c>
       <c r="Q15">
@@ -1875,22 +1998,22 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="5">
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="5">
         <v>30</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="5">
         <v>1</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
         <v>3</v>
       </c>
       <c r="Y15">
@@ -1899,29 +2022,33 @@
       <c r="Z15">
         <v>62</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="5">
         <v>21</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
         <v>47</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="5">
         <v>45</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AE15" s="1">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="AG15" t="s">
         <v>16</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>1214</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>1213</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +2079,7 @@
       <c r="O16">
         <v>209</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="5">
         <v>48</v>
       </c>
       <c r="Q16">
@@ -1961,22 +2088,22 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="5">
         <v>7</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
         <v>14</v>
       </c>
       <c r="Y16">
@@ -1985,29 +2112,33 @@
       <c r="Z16">
         <v>46</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="5">
         <v>24</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="5">
         <v>2</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="5">
         <v>21</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="5">
         <v>30</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AE16" s="1">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="AG16" t="s">
         <v>17</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>936</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2038,7 +2169,7 @@
       <c r="O17">
         <v>288</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="5">
         <v>166</v>
       </c>
       <c r="Q17">
@@ -2047,22 +2178,22 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
         <v>18</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
         <v>18</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
         <v>11</v>
       </c>
       <c r="Y17">
@@ -2071,29 +2202,33 @@
       <c r="Z17">
         <v>128</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="5">
         <v>158</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="5">
         <v>1</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="5">
         <v>61</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="5">
         <v>82</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AE17" s="1">
+        <f t="shared" si="0"/>
+        <v>1057</v>
+      </c>
+      <c r="AG17" t="s">
         <v>18</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>5059</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>5021</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2259,7 @@
       <c r="O18">
         <v>50</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="5">
         <v>10</v>
       </c>
       <c r="Q18">
@@ -2133,22 +2268,22 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <v>2</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
         <v>5</v>
       </c>
       <c r="Y18">
@@ -2157,29 +2292,33 @@
       <c r="Z18">
         <v>11</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="5">
         <v>1</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
         <v>4</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="5">
         <v>2</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AE18" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s">
         <v>19</v>
-      </c>
-      <c r="AH18">
-        <v>414</v>
       </c>
       <c r="AI18">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2210,7 +2349,7 @@
       <c r="O19">
         <v>142</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="5">
         <v>41</v>
       </c>
       <c r="Q19">
@@ -2219,22 +2358,22 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>1</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
         <v>1</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
         <v>0</v>
       </c>
       <c r="Y19">
@@ -2243,29 +2382,33 @@
       <c r="Z19">
         <v>15</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="5">
         <v>18</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="5">
         <v>3</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="5">
         <v>25</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="5">
         <v>23</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AE19" s="1">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="AG19" t="s">
         <v>20</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>536</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2296,7 +2439,7 @@
       <c r="O20" s="2">
         <v>370</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="7">
         <v>187</v>
       </c>
       <c r="Q20" s="2">
@@ -2305,22 +2448,22 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="7">
         <v>5</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="7">
         <v>54</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="7">
         <v>10</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="7">
         <v>17</v>
       </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
         <v>14</v>
       </c>
       <c r="Y20" s="2">
@@ -2329,29 +2472,33 @@
       <c r="Z20" s="2">
         <v>237</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="7">
         <v>179</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="7">
         <v>8</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="7">
         <v>209</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="7">
         <v>103</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AE20" s="1">
+        <f t="shared" si="0"/>
+        <v>568</v>
+      </c>
+      <c r="AG20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AI20" s="3">
         <v>4469</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AJ20" s="3">
         <v>4427</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2382,7 +2529,7 @@
       <c r="O21" s="2">
         <v>188</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="7">
         <v>77</v>
       </c>
       <c r="Q21" s="2">
@@ -2391,22 +2538,22 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
         <v>3</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
         <v>16</v>
       </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
         <v>10</v>
       </c>
       <c r="Y21" s="2">
@@ -2415,29 +2562,33 @@
       <c r="Z21" s="2">
         <v>40</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="7">
         <v>77</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB21" s="7">
         <v>8</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21" s="7">
         <v>80</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="7">
         <v>24</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AE21" s="1">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="AG21" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>1255</v>
       </c>
       <c r="AI21" s="3">
         <v>1255</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="3">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2468,7 +2619,7 @@
       <c r="O22">
         <v>109</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="5">
         <v>32</v>
       </c>
       <c r="Q22">
@@ -2477,22 +2628,22 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
         <v>6</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
         <v>7</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
         <v>2</v>
       </c>
       <c r="Y22">
@@ -2501,29 +2652,33 @@
       <c r="Z22">
         <v>41</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="5">
         <v>22</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
         <v>30</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="5">
         <v>20</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AE22" s="1">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="AG22" t="s">
         <v>23</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>692</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2554,7 +2709,7 @@
       <c r="O23">
         <v>198</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="5">
         <v>65</v>
       </c>
       <c r="Q23">
@@ -2563,22 +2718,22 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
         <v>2</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="5">
         <v>3</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="5">
         <v>2</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
         <v>12</v>
       </c>
       <c r="Y23">
@@ -2587,29 +2742,33 @@
       <c r="Z23">
         <v>70</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="5">
         <v>59</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="5">
         <v>4</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="5">
         <v>51</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="5">
         <v>39</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AE23" s="1">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="AG23" t="s">
         <v>24</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <v>1829</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <v>1823</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2640,7 +2799,7 @@
       <c r="O24">
         <v>393</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="5">
         <v>282</v>
       </c>
       <c r="Q24">
@@ -2649,22 +2808,22 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <v>32</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="5">
         <v>2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="5">
         <v>7</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
         <v>8</v>
       </c>
       <c r="Y24">
@@ -2673,29 +2832,33 @@
       <c r="Z24">
         <v>159</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="5">
         <v>69</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="5">
         <v>5</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="5">
         <v>108</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="5">
         <v>41</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AE24" s="1">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="AG24" t="s">
         <v>25</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AI24" s="1">
         <v>3578</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>3567</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2889,7 @@
       <c r="O25">
         <v>331</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="5">
         <v>160</v>
       </c>
       <c r="Q25">
@@ -2735,22 +2898,22 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
         <v>5</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
         <v>7</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
         <v>17</v>
       </c>
       <c r="Y25">
@@ -2759,29 +2922,33 @@
       <c r="Z25">
         <v>150</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="5">
         <v>26</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="5">
         <v>3</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="5">
         <v>34</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="5">
         <v>74</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AE25" s="1">
+        <f t="shared" si="0"/>
+        <v>959</v>
+      </c>
+      <c r="AG25" t="s">
         <v>26</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>2869</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>2806</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2979,7 @@
       <c r="O26">
         <v>357</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="5">
         <v>195</v>
       </c>
       <c r="Q26">
@@ -2821,22 +2988,22 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
         <v>23</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="5">
         <v>2</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="5">
         <v>8</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
         <v>7</v>
       </c>
       <c r="Y26">
@@ -2845,29 +3012,33 @@
       <c r="Z26">
         <v>100</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="5">
         <v>63</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="5">
         <v>2</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="5">
         <v>122</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="5">
         <v>47</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AE26" s="1">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="AG26" t="s">
         <v>27</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>2996</v>
       </c>
       <c r="AI26" s="1">
         <v>2996</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="1">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +3069,7 @@
       <c r="O27" s="2">
         <v>231</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="7">
         <v>240</v>
       </c>
       <c r="Q27" s="2">
@@ -2907,22 +3078,22 @@
       <c r="R27" s="2">
         <v>0</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="7">
         <v>2</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="7">
         <v>6</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
         <v>23</v>
       </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
         <v>10</v>
       </c>
       <c r="Y27" s="2">
@@ -2931,29 +3102,33 @@
       <c r="Z27" s="2">
         <v>139</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="7">
         <v>58</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB27" s="7">
         <v>7</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="7">
         <v>86</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="7">
         <v>58</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AE27" s="1">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="AG27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AI27" s="3">
         <v>2750</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AJ27" s="3">
         <v>2726</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2984,7 +3159,7 @@
       <c r="O28">
         <v>194</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="5">
         <v>70</v>
       </c>
       <c r="Q28">
@@ -2993,22 +3168,22 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="5">
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="5">
         <v>3</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
         <v>2</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
         <v>6</v>
       </c>
       <c r="Y28">
@@ -3017,29 +3192,33 @@
       <c r="Z28">
         <v>37</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="5">
         <v>37</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="5">
         <v>32</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="5">
         <v>12</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AE28" s="1">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="AG28" t="s">
         <v>29</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>1041</v>
       </c>
       <c r="AI28" s="1">
         <v>1041</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="1">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3249,7 @@
       <c r="O29">
         <v>76</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="5">
         <v>9</v>
       </c>
       <c r="Q29">
@@ -3079,22 +3258,22 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="S29" s="5">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
         <v>0</v>
       </c>
       <c r="Y29">
@@ -3103,29 +3282,33 @@
       <c r="Z29">
         <v>12</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="5">
         <v>2</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="5">
         <v>3</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="5">
         <v>12</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AE29" s="1">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="AG29" t="s">
         <v>30</v>
-      </c>
-      <c r="AH29">
-        <v>538</v>
       </c>
       <c r="AI29">
         <v>538</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3156,7 +3339,7 @@
       <c r="O30">
         <v>205</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="5">
         <v>45</v>
       </c>
       <c r="Q30">
@@ -3165,22 +3348,22 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
         <v>4</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
         <v>2</v>
       </c>
       <c r="Y30">
@@ -3189,29 +3372,33 @@
       <c r="Z30">
         <v>27</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="5">
         <v>39</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="5">
         <v>3</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="5">
         <v>37</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="5">
         <v>12</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AE30" s="1">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="AG30" t="s">
         <v>31</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>780</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>775</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3242,7 +3429,7 @@
       <c r="O31">
         <v>72</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="5">
         <v>31</v>
       </c>
       <c r="Q31">
@@ -3251,22 +3438,22 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
         <v>3</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
         <v>7</v>
       </c>
       <c r="Y31">
@@ -3275,29 +3462,33 @@
       <c r="Z31">
         <v>8</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="5">
         <v>29</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="5">
         <v>4</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="5">
         <v>52</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="5">
         <v>28</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AE31" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AG31" t="s">
         <v>32</v>
-      </c>
-      <c r="AH31">
-        <v>520</v>
       </c>
       <c r="AI31">
         <v>520</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3328,7 +3519,7 @@
       <c r="O32">
         <v>358</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="5">
         <v>117</v>
       </c>
       <c r="Q32">
@@ -3337,22 +3528,22 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="5">
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="5">
         <v>16</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
         <v>19</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
         <v>27</v>
       </c>
       <c r="Y32">
@@ -3361,29 +3552,33 @@
       <c r="Z32">
         <v>123</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="5">
         <v>131</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="5">
         <v>4</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="5">
         <v>120</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="5">
         <v>41</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AE32" s="1">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+      <c r="AG32" t="s">
         <v>33</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1">
         <v>2206</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AJ32" s="1">
         <v>2192</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +3609,7 @@
       <c r="O33">
         <v>107</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="5">
         <v>30</v>
       </c>
       <c r="Q33">
@@ -3423,22 +3618,22 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
         <v>3</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="5">
         <v>1</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="5">
         <v>2</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
         <v>1</v>
       </c>
       <c r="Y33">
@@ -3447,29 +3642,33 @@
       <c r="Z33">
         <v>5</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="5">
         <v>3</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="5">
         <v>7</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="5">
         <v>9</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="5">
         <v>7</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AE33" s="1">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="AG33" t="s">
         <v>34</v>
-      </c>
-      <c r="AH33">
-        <v>202</v>
       </c>
       <c r="AI33">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3500,7 +3699,7 @@
       <c r="O34">
         <v>168</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="5">
         <v>165</v>
       </c>
       <c r="Q34">
@@ -3509,22 +3708,22 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="5">
         <v>1</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="5">
         <v>23</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
         <v>1</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
         <v>22</v>
       </c>
       <c r="Y34">
@@ -3533,29 +3732,33 @@
       <c r="Z34">
         <v>133</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="5">
         <v>220</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="5">
         <v>9</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="5">
         <v>182</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="5">
         <v>77</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AE34" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="AG34" t="s">
         <v>35</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AI34" s="1">
         <v>2521</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AJ34" s="1">
         <v>2520</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3586,7 +3789,7 @@
       <c r="O35">
         <v>71</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="5">
         <v>16</v>
       </c>
       <c r="Q35">
@@ -3595,22 +3798,22 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
+      <c r="S35" s="5">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
         <v>1</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
         <v>0</v>
       </c>
       <c r="Y35">
@@ -3619,29 +3822,33 @@
       <c r="Z35">
         <v>24</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="5">
         <v>12</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="5">
         <v>1</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="5">
         <v>12</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="5">
         <v>11</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AE35" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="AG35" t="s">
         <v>36</v>
-      </c>
-      <c r="AH35">
-        <v>489</v>
       </c>
       <c r="AI35">
         <v>489</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3672,7 +3879,7 @@
       <c r="O36">
         <v>56</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="5">
         <v>5</v>
       </c>
       <c r="Q36">
@@ -3681,22 +3888,22 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
         <v>1</v>
       </c>
       <c r="Y36">
@@ -3705,29 +3912,33 @@
       <c r="Z36">
         <v>2</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="5">
         <v>2</v>
       </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
         <v>3</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="5">
         <v>2</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AE36" s="1">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="AG36" t="s">
         <v>37</v>
-      </c>
-      <c r="AH36">
-        <v>128</v>
       </c>
       <c r="AI36">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ36">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3758,7 +3969,7 @@
       <c r="O37">
         <v>66</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="5">
         <v>18</v>
       </c>
       <c r="Q37">
@@ -3767,22 +3978,22 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="5">
         <v>9</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
         <v>3</v>
       </c>
       <c r="Y37">
@@ -3791,29 +4002,33 @@
       <c r="Z37">
         <v>10</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="5">
         <v>12</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="5">
         <v>6</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="5">
         <v>32</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="5">
         <v>4</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AE37" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AG37" t="s">
         <v>38</v>
-      </c>
-      <c r="AH37">
-        <v>333</v>
       </c>
       <c r="AI37">
         <v>333</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ37">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3844,7 +4059,7 @@
       <c r="O38">
         <v>70</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="5">
         <v>51</v>
       </c>
       <c r="Q38">
@@ -3853,22 +4068,22 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
         <v>6</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
         <v>3</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
         <v>8</v>
       </c>
       <c r="Y38">
@@ -3877,29 +4092,33 @@
       <c r="Z38">
         <v>17</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="5">
         <v>17</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
         <v>38</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="5">
         <v>7</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AE38" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AG38" t="s">
         <v>39</v>
-      </c>
-      <c r="AH38">
-        <v>519</v>
       </c>
       <c r="AI38">
         <v>519</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ38">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3930,7 +4149,7 @@
       <c r="O39">
         <v>505</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="5">
         <v>425</v>
       </c>
       <c r="Q39">
@@ -3939,22 +4158,22 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="5">
         <v>12</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="5">
         <v>52</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
         <v>21</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
         <v>31</v>
       </c>
       <c r="Y39">
@@ -3963,29 +4182,33 @@
       <c r="Z39">
         <v>310</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="5">
         <v>108</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="5">
         <v>7</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="5">
         <v>177</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="5">
         <v>124</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AE39" s="1">
+        <f t="shared" si="0"/>
+        <v>1116</v>
+      </c>
+      <c r="AG39" t="s">
         <v>40</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AI39" s="1">
         <v>7207</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AJ39" s="1">
         <v>7119</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4016,7 +4239,7 @@
       <c r="O40">
         <v>67</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="5">
         <v>9</v>
       </c>
       <c r="Q40">
@@ -4025,22 +4248,22 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="S40" s="5">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
         <v>1</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
         <v>1</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
         <v>3</v>
       </c>
       <c r="Y40">
@@ -4049,29 +4272,33 @@
       <c r="Z40">
         <v>44</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="5">
         <v>7</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
         <v>6</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="5">
         <v>7</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AE40" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s">
         <v>41</v>
-      </c>
-      <c r="AH40">
-        <v>392</v>
       </c>
       <c r="AI40">
         <v>392</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ40">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4102,7 +4329,7 @@
       <c r="O41">
         <v>138</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="5">
         <v>78</v>
       </c>
       <c r="Q41">
@@ -4111,22 +4338,22 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
+      <c r="T41" s="5">
         <v>21</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
         <v>10</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
         <v>6</v>
       </c>
       <c r="Y41">
@@ -4135,29 +4362,33 @@
       <c r="Z41">
         <v>61</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="5">
         <v>28</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="5">
         <v>4</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="5">
         <v>39</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="5">
         <v>35</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AE41" s="1">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="AG41" t="s">
         <v>42</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AI41" s="1">
         <v>1430</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AJ41" s="1">
         <v>1429</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4188,7 +4419,7 @@
       <c r="O42">
         <v>74</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="5">
         <v>8</v>
       </c>
       <c r="Q42">
@@ -4197,22 +4428,22 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S42" s="5">
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
         <v>2</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
         <v>0</v>
       </c>
       <c r="Y42">
@@ -4221,29 +4452,33 @@
       <c r="Z42">
         <v>5</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="5">
         <v>49</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
+      <c r="AB42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="5">
         <v>9</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="5">
         <v>13</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AE42" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AG42" t="s">
         <v>43</v>
-      </c>
-      <c r="AH42">
-        <v>204</v>
       </c>
       <c r="AI42">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4274,7 +4509,7 @@
       <c r="O43">
         <v>99</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="5">
         <v>99</v>
       </c>
       <c r="Q43">
@@ -4283,22 +4518,22 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="5">
         <v>1</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="5">
         <v>10</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
         <v>2</v>
       </c>
       <c r="Y43">
@@ -4307,29 +4542,33 @@
       <c r="Z43">
         <v>18</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="5">
         <v>51</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
         <v>25</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="5">
         <v>14</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AE43" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s">
         <v>44</v>
-      </c>
-      <c r="AH43">
-        <v>588</v>
       </c>
       <c r="AI43">
         <v>588</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ43">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4360,7 +4599,7 @@
       <c r="O44">
         <v>70</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="5">
         <v>39</v>
       </c>
       <c r="Q44">
@@ -4369,22 +4608,22 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
+      <c r="S44" s="5">
+        <v>0</v>
+      </c>
+      <c r="T44" s="5">
         <v>2</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
         <v>1</v>
       </c>
       <c r="Y44">
@@ -4393,23 +4632,27 @@
       <c r="Z44">
         <v>13</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="5">
         <v>54</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="5">
         <v>5</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="5">
         <v>87</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="5">
         <v>18</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AE44" s="1">
+        <f t="shared" si="0"/>
+        <v>-66</v>
+      </c>
+      <c r="AG44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4440,7 +4683,7 @@
       <c r="O45">
         <v>171</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="5">
         <v>37</v>
       </c>
       <c r="Q45">
@@ -4449,22 +4692,22 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
+      <c r="S45" s="5">
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
         <v>2</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
         <v>3</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
         <v>2</v>
       </c>
       <c r="Y45">
@@ -4473,26 +4716,30 @@
       <c r="Z45">
         <v>25</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="5">
         <v>26</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="5">
         <v>7</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="5">
         <v>27</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="5">
         <v>10</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AE45" s="1">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="AG45" t="s">
         <v>67</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4523,7 +4770,7 @@
       <c r="O46">
         <v>140</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="5">
         <v>55</v>
       </c>
       <c r="Q46">
@@ -4532,22 +4779,22 @@
       <c r="R46">
         <v>0</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
+      <c r="S46" s="5">
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
         <v>2</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
         <v>5</v>
       </c>
       <c r="Y46">
@@ -4556,23 +4803,27 @@
       <c r="Z46">
         <v>25</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="5">
         <v>30</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="5">
         <v>3</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="5">
         <v>45</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="5">
         <v>4</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AE46" s="1">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="AG46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4603,7 +4854,7 @@
       <c r="O47">
         <v>501</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="5">
         <v>195</v>
       </c>
       <c r="Q47">
@@ -4612,22 +4863,22 @@
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="5">
         <v>3</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="5">
         <v>45</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="5">
         <v>1</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="5">
         <v>3</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
         <v>10</v>
       </c>
       <c r="Y47">
@@ -4636,23 +4887,27 @@
       <c r="Z47">
         <v>189</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="5">
         <v>247</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="5">
         <v>18</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="5">
         <v>212</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="5">
         <v>138</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AE47" s="1">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="AG47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4683,7 +4938,7 @@
       <c r="O48">
         <v>252</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="5">
         <v>94</v>
       </c>
       <c r="Q48">
@@ -4692,22 +4947,22 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="5">
         <v>1</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="5">
         <v>7</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
         <v>10</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
         <v>2</v>
       </c>
       <c r="Y48">
@@ -4716,23 +4971,27 @@
       <c r="Z48">
         <v>95</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="5">
         <v>40</v>
       </c>
-      <c r="AB48">
+      <c r="AB48" s="5">
         <v>3</v>
       </c>
-      <c r="AC48">
+      <c r="AC48" s="5">
         <v>84</v>
       </c>
-      <c r="AD48">
+      <c r="AD48" s="5">
         <v>43</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AE48" s="1">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="AG48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4763,7 +5022,7 @@
       <c r="O49">
         <v>76</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="5">
         <v>11</v>
       </c>
       <c r="Q49">
@@ -4772,22 +5031,22 @@
       <c r="R49">
         <v>0</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="5">
         <v>1</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="5">
         <v>9</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
         <v>15</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+      <c r="X49" s="5">
         <v>6</v>
       </c>
       <c r="Y49">
@@ -4796,26 +5055,30 @@
       <c r="Z49">
         <v>21</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="5">
         <v>20</v>
       </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
+      <c r="AB49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="5">
         <v>10</v>
       </c>
-      <c r="AD49">
+      <c r="AD49" s="5">
         <v>10</v>
       </c>
-      <c r="AH49" t="s">
+      <c r="AE49" s="1">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="AI49" t="s">
         <v>65</v>
       </c>
-      <c r="AI49" t="s">
+      <c r="AJ49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4846,7 +5109,7 @@
       <c r="O50">
         <v>160</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="5">
         <v>27</v>
       </c>
       <c r="Q50">
@@ -4855,22 +5118,22 @@
       <c r="R50">
         <v>0</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
+      <c r="S50" s="5">
+        <v>0</v>
+      </c>
+      <c r="T50" s="5">
         <v>8</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5">
         <v>10</v>
       </c>
       <c r="Y50">
@@ -4879,29 +5142,33 @@
       <c r="Z50">
         <v>40</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="5">
         <v>12</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="5">
         <v>6</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="5">
         <v>42</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="5">
         <v>15</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AE50" s="1">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="AG50" t="s">
         <v>48</v>
-      </c>
-      <c r="AH50">
-        <v>362</v>
       </c>
       <c r="AI50">
         <v>362</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ50">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4932,7 +5199,7 @@
       <c r="O51">
         <v>262</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="5">
         <v>74</v>
       </c>
       <c r="Q51">
@@ -4941,22 +5208,22 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
+      <c r="S51" s="5">
+        <v>0</v>
+      </c>
+      <c r="T51" s="5">
         <v>9</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
+      <c r="U51" s="5">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
         <v>4</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
         <v>3</v>
       </c>
       <c r="Y51">
@@ -4965,29 +5232,33 @@
       <c r="Z51">
         <v>78</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="5">
         <v>52</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="5">
         <v>5</v>
       </c>
-      <c r="AC51">
+      <c r="AC51" s="5">
         <v>85</v>
       </c>
-      <c r="AD51">
+      <c r="AD51" s="5">
         <v>34</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AE51" s="1">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="AG51" t="s">
         <v>49</v>
-      </c>
-      <c r="AH51">
-        <v>581</v>
       </c>
       <c r="AI51">
         <v>581</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ51">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5018,7 +5289,7 @@
       <c r="O52">
         <v>98</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="5">
         <v>17</v>
       </c>
       <c r="Q52">
@@ -5027,22 +5298,22 @@
       <c r="R52">
         <v>0</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
+      <c r="S52" s="5">
+        <v>0</v>
+      </c>
+      <c r="T52" s="5">
         <v>1</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
         <v>1</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5">
         <v>0</v>
       </c>
       <c r="Y52">
@@ -5051,29 +5322,33 @@
       <c r="Z52">
         <v>24</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="5">
         <v>35</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" s="5">
         <v>1</v>
       </c>
-      <c r="AC52">
+      <c r="AC52" s="5">
         <v>47</v>
       </c>
-      <c r="AD52">
+      <c r="AD52" s="5">
         <v>7</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AE52" s="1">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="AG52" t="s">
         <v>50</v>
-      </c>
-      <c r="AH52">
-        <v>699</v>
       </c>
       <c r="AI52">
         <v>699</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ52">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5104,7 +5379,7 @@
       <c r="O53">
         <v>338</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="5">
         <v>125</v>
       </c>
       <c r="Q53">
@@ -5113,22 +5388,22 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="5">
         <v>3</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="5">
         <v>23</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="5">
         <v>1</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="5">
         <v>18</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5">
         <v>17</v>
       </c>
       <c r="Y53">
@@ -5137,29 +5412,33 @@
       <c r="Z53">
         <v>175</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="5">
         <v>76</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" s="5">
         <v>9</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="5">
         <v>106</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="5">
         <v>156</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AE53" s="1">
+        <f t="shared" si="0"/>
+        <v>971</v>
+      </c>
+      <c r="AG53" t="s">
         <v>51</v>
       </c>
-      <c r="AH53" s="1">
+      <c r="AI53" s="1">
         <v>4991</v>
       </c>
-      <c r="AI53" s="1">
+      <c r="AJ53" s="1">
         <v>4931</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5190,7 +5469,7 @@
       <c r="O54">
         <v>230</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="5">
         <v>210</v>
       </c>
       <c r="Q54">
@@ -5199,22 +5478,22 @@
       <c r="R54">
         <v>1</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="5">
         <v>2</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="5">
         <v>11</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="5">
         <v>1</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="5">
         <v>8</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+      <c r="X54" s="5">
         <v>16</v>
       </c>
       <c r="Y54">
@@ -5223,29 +5502,33 @@
       <c r="Z54">
         <v>278</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="5">
         <v>219</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="5">
         <v>3</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="5">
         <v>177</v>
       </c>
-      <c r="AD54">
+      <c r="AD54" s="5">
         <v>61</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AE54" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="AG54" t="s">
         <v>52</v>
       </c>
-      <c r="AH54" s="1">
+      <c r="AI54" s="1">
         <v>2095</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AJ54" s="1">
         <v>2088</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5276,7 +5559,7 @@
       <c r="O55">
         <v>356</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="5">
         <v>103</v>
       </c>
       <c r="Q55">
@@ -5285,22 +5568,22 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="5">
         <v>2</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="5">
         <v>14</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="5">
         <v>1</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="5">
         <v>2</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
+      <c r="W55" s="5">
+        <v>0</v>
+      </c>
+      <c r="X55" s="5">
         <v>21</v>
       </c>
       <c r="Y55">
@@ -5309,29 +5592,33 @@
       <c r="Z55">
         <v>106</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="5">
         <v>92</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="5">
         <v>10</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="5">
         <v>99</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="5">
         <v>147</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AE55" s="1">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="AG55" t="s">
         <v>53</v>
-      </c>
-      <c r="AH55">
-        <v>496</v>
       </c>
       <c r="AI55">
         <v>496</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ55">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -5362,7 +5649,7 @@
       <c r="O56">
         <v>124</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="5">
         <v>68</v>
       </c>
       <c r="Q56">
@@ -5371,22 +5658,22 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
         <v>3</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
+      <c r="U56" s="5">
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+      <c r="W56" s="5">
+        <v>0</v>
+      </c>
+      <c r="X56" s="5">
         <v>1</v>
       </c>
       <c r="Y56">
@@ -5395,29 +5682,33 @@
       <c r="Z56">
         <v>25</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="5">
         <v>19</v>
       </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
+      <c r="AB56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="5">
         <v>20</v>
       </c>
-      <c r="AD56">
+      <c r="AD56" s="5">
         <v>6</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AE56" s="1">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="AG56" t="s">
         <v>54</v>
-      </c>
-      <c r="AH56">
-        <v>811</v>
       </c>
       <c r="AI56">
         <v>811</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ56">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5448,7 +5739,7 @@
       <c r="O57">
         <v>190</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="5">
         <v>84</v>
       </c>
       <c r="Q57">
@@ -5457,22 +5748,22 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
+      <c r="S57" s="5">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5">
         <v>29</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
+      <c r="U57" s="5">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
         <v>6</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
+      <c r="W57" s="5">
+        <v>0</v>
+      </c>
+      <c r="X57" s="5">
         <v>8</v>
       </c>
       <c r="Y57">
@@ -5481,29 +5772,33 @@
       <c r="Z57">
         <v>110</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="5">
         <v>104</v>
       </c>
-      <c r="AB57">
+      <c r="AB57" s="5">
         <v>1</v>
       </c>
-      <c r="AC57">
+      <c r="AC57" s="5">
         <v>83</v>
       </c>
-      <c r="AD57">
+      <c r="AD57" s="5">
         <v>34</v>
       </c>
-      <c r="AF57" t="s">
+      <c r="AE57" s="1">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="AG57" t="s">
         <v>55</v>
       </c>
-      <c r="AH57" s="1">
+      <c r="AI57" s="1">
         <v>1848</v>
       </c>
-      <c r="AI57" s="1">
+      <c r="AJ57" s="1">
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -5534,7 +5829,7 @@
       <c r="O58">
         <v>310</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="5">
         <v>107</v>
       </c>
       <c r="Q58">
@@ -5543,22 +5838,22 @@
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
         <v>12</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
         <v>5</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+      <c r="X58" s="5">
         <v>7</v>
       </c>
       <c r="Y58">
@@ -5567,29 +5862,33 @@
       <c r="Z58">
         <v>60</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="5">
         <v>40</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="5">
         <v>2</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="5">
         <v>46</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="5">
         <v>5</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AE58" s="1">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="AG58" t="s">
         <v>56</v>
-      </c>
-      <c r="AH58">
-        <v>691</v>
       </c>
       <c r="AI58">
         <v>691</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ58">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5620,7 +5919,7 @@
       <c r="O59">
         <v>83</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="5">
         <v>45</v>
       </c>
       <c r="Q59">
@@ -5629,22 +5928,22 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
         <v>4</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
         <v>2</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5">
         <v>8</v>
       </c>
       <c r="Y59">
@@ -5653,29 +5952,33 @@
       <c r="Z59">
         <v>42</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="5">
         <v>39</v>
       </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
+      <c r="AB59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="5">
         <v>46</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="5">
         <v>47</v>
       </c>
-      <c r="AF59" t="s">
+      <c r="AE59" s="1">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="AG59" t="s">
         <v>57</v>
       </c>
-      <c r="AH59" s="1">
+      <c r="AI59" s="1">
         <v>4046</v>
       </c>
-      <c r="AI59" s="1">
+      <c r="AJ59" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -5706,7 +6009,7 @@
       <c r="O60">
         <v>164</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="5">
         <v>76</v>
       </c>
       <c r="Q60">
@@ -5715,22 +6018,22 @@
       <c r="R60">
         <v>0</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
+      <c r="S60" s="5">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
         <v>7</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
         <v>4</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
+      <c r="W60" s="5">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5">
         <v>0</v>
       </c>
       <c r="Y60">
@@ -5739,93 +6042,223 @@
       <c r="Z60">
         <v>29</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="5">
         <v>24</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="5">
         <v>2</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="5">
         <v>16</v>
       </c>
-      <c r="AD60">
+      <c r="AD60" s="5">
         <v>48</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AE60" s="1">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="AG60" t="s">
         <v>58</v>
       </c>
-      <c r="AH60" s="1">
+      <c r="AI60" s="1">
         <v>3868</v>
       </c>
-      <c r="AI60" s="1">
+      <c r="AJ60" s="1">
         <v>3845</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF61" t="s">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG61" t="s">
         <v>59</v>
       </c>
-      <c r="AH61" s="1">
+      <c r="AI61" s="1">
         <v>2684</v>
       </c>
-      <c r="AI61" s="1">
+      <c r="AJ61" s="1">
         <v>2657</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF62" t="s">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG62" t="s">
         <v>60</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>507</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF63" t="s">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG63" t="s">
         <v>61</v>
       </c>
-      <c r="AH63" s="1">
+      <c r="AI63" s="1">
         <v>1954</v>
       </c>
-      <c r="AI63" s="1">
+      <c r="AJ63" s="1">
         <v>1931</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF64" t="s">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG64" t="s">
         <v>62</v>
       </c>
-      <c r="AH64" s="1">
+      <c r="AI64" s="1">
         <v>1682</v>
       </c>
-      <c r="AI64" s="1">
+      <c r="AJ64" s="1">
         <v>1679</v>
       </c>
     </row>
-    <row r="65" spans="32:35" x14ac:dyDescent="0.25">
-      <c r="AF65" t="s">
+    <row r="65" spans="33:36" x14ac:dyDescent="0.25">
+      <c r="AG65" t="s">
         <v>63</v>
       </c>
-      <c r="AH65" s="1">
+      <c r="AI65" s="1">
         <v>1004</v>
       </c>
-      <c r="AI65" s="1">
+      <c r="AJ65" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="66" spans="32:35" x14ac:dyDescent="0.25">
-      <c r="AF66" t="s">
+    <row r="66" spans="33:36" x14ac:dyDescent="0.25">
+      <c r="AG66" t="s">
         <v>64</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>1024</v>
       </c>
       <c r="AI66" s="1">
         <v>1024</v>
       </c>
+      <c r="AJ66" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1">
+        <v>127907</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3912</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7815</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9897</v>
+      </c>
+      <c r="F2" s="1">
+        <v>17037</v>
+      </c>
+      <c r="G2" s="1">
+        <v>27153</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20471</v>
+      </c>
+      <c r="I2" s="1">
+        <v>23217</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <f>C2/$B$2</f>
+        <v>3.0584721711868778E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:J3" si="0">D2/$B$2</f>
+        <v>6.1099079800167308E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7376531386085204E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13319833941848375</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21228705231144504</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16004597090073255</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18151469427005559</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14389361020116179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WLStatistics.xlsx
+++ b/WLStatistics.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transplant Rates - 2014 - Kidne" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="114">
   <si>
     <t>All Donor Types</t>
   </si>
@@ -337,14 +338,45 @@
   </si>
   <si>
     <t>Calculation for Transplant Eligible</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Total Candidates</t>
+  </si>
+  <si>
+    <t>Transplants/Candidate</t>
+  </si>
+  <si>
+    <t>OneLegacy</t>
+  </si>
+  <si>
+    <t>Gift of Hope</t>
+  </si>
+  <si>
+    <t>Indiana Donor Network</t>
+  </si>
+  <si>
+    <t>LifeSource Upper Midwest OPO</t>
+  </si>
+  <si>
+    <t>Deceased Donor TX</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Deceased Donor TX-Eligible Additions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -396,15 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="AI27" activeCellId="3" sqref="AI8 AI20 AI21 AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1438,7 @@
         <v>84</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="0"/>
+        <f>J8-P8-S8-T8-V8-U8-W8-X8-AA8-AB8-AD8-AC8</f>
         <v>1396</v>
       </c>
       <c r="AG8" s="2" t="s">
@@ -6264,4 +6297,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2">
+        <v>610</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2164</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1396</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7420</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2/E2</f>
+        <v>8.2210242587601082E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" ref="G2:G4" si="0">(D2-B2)/E2</f>
+        <v>0.10592991913746631</v>
+      </c>
+      <c r="H2" s="2">
+        <f>B2/D2</f>
+        <v>0.43696275071633239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2">
+        <v>370</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1354</v>
+      </c>
+      <c r="D3" s="1">
+        <v>568</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4427</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F5" si="1">B3/E3</f>
+        <v>8.3578043822001361E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4725547775016944E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H2:H4" si="2">B3/D3</f>
+        <v>0.65140845070422537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2">
+        <v>188</v>
+      </c>
+      <c r="C4" s="3">
+        <v>568</v>
+      </c>
+      <c r="D4" s="1">
+        <v>273</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1255</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14980079681274899</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>6.7729083665338641E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68864468864468864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2">
+        <v>230</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1057</v>
+      </c>
+      <c r="D5" s="1">
+        <v>567</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2726</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4372707263389579E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <f>(D5-B5)/E5</f>
+        <v>0.12362435803374908</v>
+      </c>
+      <c r="H5" s="2">
+        <f>B5/D5</f>
+        <v>0.40564373897707229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>610</v>
+      </c>
+      <c r="C11" s="2">
+        <v>370</v>
+      </c>
+      <c r="D11" s="2">
+        <v>188</v>
+      </c>
+      <c r="E11" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2164</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1354</v>
+      </c>
+      <c r="D12" s="3">
+        <v>568</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1396</v>
+      </c>
+      <c r="C13" s="1">
+        <v>568</v>
+      </c>
+      <c r="D13" s="1">
+        <v>273</v>
+      </c>
+      <c r="E13" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7420</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4427</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1255</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B11/B14</f>
+        <v>8.2210242587601082E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C11/C14</f>
+        <v>8.3578043822001361E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D11/D14</f>
+        <v>0.14980079681274899</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E11/E14</f>
+        <v>8.4372707263389579E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>